--- a/模型说明.xlsx
+++ b/模型说明.xlsx
@@ -7,12 +7,77 @@
     <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="fetures" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="特征fetures" sheetId="1" r:id="rId1"/>
+    <sheet name="模型效果记录" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+  <si>
+    <t>特征大类</t>
+  </si>
+  <si>
+    <t>特征项</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>用户购买行为相关</t>
+  </si>
+  <si>
+    <t>最近一次购买距离当前的天数（R）</t>
+  </si>
+  <si>
+    <t>购买总次数（F）</t>
+  </si>
+  <si>
+    <t>购买总金额(M)</t>
+  </si>
+  <si>
+    <t>第一次购买的订单金额</t>
+  </si>
+  <si>
+    <t>第一次购买的订单来源</t>
+  </si>
+  <si>
+    <t>第一次购买的支付方式</t>
+  </si>
+  <si>
+    <t>最近一次购买的订单金额</t>
+  </si>
+  <si>
+    <t>最近一次购买的订单来源</t>
+  </si>
+  <si>
+    <t>用户购买商品所属的class_code</t>
+  </si>
+  <si>
+    <t>用户购买商品所属的branch_code</t>
+  </si>
+  <si>
+    <t>收货地址所在省份</t>
+  </si>
+  <si>
+    <t>用户浏览行为相关</t>
+  </si>
+  <si>
+    <t>最近半年打开app的次数</t>
+  </si>
+  <si>
+    <t>很稀疏，只有3%不到的用户该特征有值</t>
+  </si>
+  <si>
+    <t>电话回访相关</t>
+  </si>
+  <si>
+    <t>电话回访的时间的月份</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23,7 +88,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,21 +97,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -54,23 +155,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -78,67 +172,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,16 +185,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,15 +240,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,31 +263,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,7 +407,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,149 +449,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -393,15 +537,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -417,6 +552,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,38 +598,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,7 +608,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,154 +617,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -985,14 +1135,166 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="47" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1005,7 +1307,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/模型说明.xlsx
+++ b/模型说明.xlsx
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/模型说明.xlsx
+++ b/模型说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>特征大类</t>
   </si>
@@ -45,6 +45,9 @@
     <t>第一次购买的订单来源</t>
   </si>
   <si>
+    <t>2019.1.9新增</t>
+  </si>
+  <si>
     <t>第一次购买的支付方式</t>
   </si>
   <si>
@@ -75,7 +78,10 @@
     <t>电话回访相关</t>
   </si>
   <si>
-    <t>电话回访的时间的月份</t>
+    <t>电话回访时间的月份</t>
+  </si>
+  <si>
+    <t>电话回访时间是星期几</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,137 +644,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +794,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1138,7 +1153,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1192,63 +1207,71 @@
     </row>
     <row r="6" ht="16.5" spans="1:3">
       <c r="A6" s="6"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
       <c r="A7" s="6"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
     </row>
     <row r="8" ht="16.5" spans="1:3">
       <c r="A8" s="6"/>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" ht="16.5" spans="1:3">
       <c r="A9" s="6"/>
-      <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5"/>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
       <c r="A10" s="6"/>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" ht="16.5" spans="1:3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" ht="16.5" spans="1:3">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" ht="16.5" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1256,35 +1279,41 @@
     <row r="15" ht="16.5" spans="1:3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
     <row r="17" ht="16.5" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
     </row>
     <row r="18" ht="16.5" spans="1:3">
       <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5"/>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19" ht="16.5" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1"/>

--- a/模型说明.xlsx
+++ b/模型说明.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="特征fetures" sheetId="1" r:id="rId1"/>
     <sheet name="模型效果记录" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="问题记录" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>特征大类</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>电话回访时间是星期几</t>
+  </si>
+  <si>
+    <t>使用的特征</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>2019.1.3</t>
+  </si>
+  <si>
+    <t>2019.1.9增加</t>
   </si>
 </sst>
 </file>
@@ -94,7 +106,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +117,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -114,6 +135,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -632,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,162 +672,180 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,170 +1199,170 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="47" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="2" max="2" width="47" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" ht="16.5" spans="1:3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" ht="16.5" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" ht="16.5" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" ht="16.5" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" ht="16.5" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" ht="16.5" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" ht="16.5" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" ht="16.5" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" ht="16.5" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" ht="16.5" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1333,14 +1379,164 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="20.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.817</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:3">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C17:C18"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1353,7 +1549,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/模型说明.xlsx
+++ b/模型说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="特征fetures" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>特征大类</t>
   </si>
@@ -66,6 +66,9 @@
     <t>收货地址所在省份</t>
   </si>
   <si>
+    <t>收货地址个数</t>
+  </si>
+  <si>
     <t>用户浏览行为相关</t>
   </si>
   <si>
@@ -94,6 +97,9 @@
   </si>
   <si>
     <t>2019.1.9增加</t>
+  </si>
+  <si>
+    <t>最近一次购买的支付方式</t>
   </si>
 </sst>
 </file>
@@ -106,7 +112,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,14 +123,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -660,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,133 +670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -812,40 +810,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1196,10 +1194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1316,44 +1314,44 @@
       <c r="C13" s="10"/>
     </row>
     <row r="14" ht="16.5" spans="1:3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" ht="16.5" spans="1:3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" ht="16.5" spans="1:3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" ht="16.5" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="10"/>
     </row>
     <row r="18" ht="16.5" spans="1:3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>9</v>
-      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" ht="16.5" spans="1:3">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="13" t="s">
         <v>21</v>
       </c>
@@ -1361,14 +1359,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2"/>
+    <row r="20" ht="16.5" spans="1:3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1381,8 +1388,8 @@
   <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1392,18 +1399,18 @@
     <col min="3" max="3" width="39.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
@@ -1464,7 +1471,7 @@
     <row r="10" ht="16.5" spans="1:3">
       <c r="A10" s="9"/>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="9"/>
     </row>
@@ -1475,7 +1482,7 @@
     </row>
     <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>8</v>
@@ -1501,7 +1508,7 @@
     <row r="15" ht="16.5" spans="1:3">
       <c r="A15" s="9"/>
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C15" s="9"/>
     </row>
@@ -1512,10 +1519,10 @@
     </row>
     <row r="17" ht="16.5" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7">
         <v>0.873</v>
@@ -1524,7 +1531,7 @@
     <row r="18" ht="16.5" spans="1:3">
       <c r="A18" s="9"/>
       <c r="B18" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
     </row>

--- a/模型说明.xlsx
+++ b/模型说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="特征fetures" sheetId="1" r:id="rId1"/>
@@ -1196,15 +1196,15 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="47" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1388,14 +1388,14 @@
   <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="39" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1525,7 +1525,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="7">
-        <v>0.873</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:3">
@@ -1556,7 +1556,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/模型说明.xlsx
+++ b/模型说明.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>特征大类</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>收货地址个数</t>
+  </si>
+  <si>
+    <t>单笔订单最高金额</t>
+  </si>
+  <si>
+    <t>待增加</t>
+  </si>
+  <si>
+    <t>单笔订单最低金额</t>
+  </si>
+  <si>
+    <t>单笔订单平均金额</t>
   </si>
   <si>
     <t>用户浏览行为相关</t>
@@ -307,6 +319,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,12 +500,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,137 +682,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +853,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1194,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1323,59 +1338,86 @@
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" ht="16.5" spans="1:3">
       <c r="A16" s="12"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="17" ht="16.5" spans="1:3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" ht="16.5" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="10"/>
     </row>
     <row r="19" ht="16.5" spans="1:3">
       <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="13" t="s">
+    <row r="23" ht="16.5" spans="1:3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2"/>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1389,7 +1431,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1402,15 +1444,15 @@
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>4</v>
@@ -1471,7 +1513,7 @@
     <row r="10" ht="16.5" spans="1:3">
       <c r="A10" s="9"/>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" s="9"/>
     </row>
@@ -1482,7 +1524,7 @@
     </row>
     <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>8</v>
@@ -1508,7 +1550,7 @@
     <row r="15" ht="16.5" spans="1:3">
       <c r="A15" s="9"/>
       <c r="B15" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C15" s="9"/>
     </row>
@@ -1519,10 +1561,10 @@
     </row>
     <row r="17" ht="16.5" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
         <v>0.87</v>
@@ -1531,7 +1573,7 @@
     <row r="18" ht="16.5" spans="1:3">
       <c r="A18" s="9"/>
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="9"/>
     </row>

--- a/模型说明.xlsx
+++ b/模型说明.xlsx
@@ -1212,7 +1212,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
